--- a/data/proveedor/furey/nuevos/furey_only.xlsx
+++ b/data/proveedor/furey/nuevos/furey_only.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>663</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1173</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="8">
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>663</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28">
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>412</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="41">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="42">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
     </row>
     <row r="44">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="48">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="50">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1004</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="51">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1481</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="53">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>271</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -1701,137 +1701,137 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>OG CEPILLO NEUMATICO OVAL GRANDE (405)</t>
+          <t>OG CEPILLO NEUMATICO CHICO (406)</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5812</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>8890000004052</t>
+          <t>8890000004069</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1398</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>OG CEPILLO NEUMATICO CHICO (406)</t>
+          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°22 BALON 5</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>8890000004069</t>
+          <t>7792366011345</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1169</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°22 BALON 5</t>
+          <t>ANDADOR ROLLATOR CON 4 RUEDAS SILFAB A3022G</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>587</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>7792366011345</t>
+          <t>7798028883714</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>206</v>
+        <v>52078</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>ANDADOR ROLLATOR CON 4 RUEDAS SILFAB A3022G</t>
+          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 100 gr.</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>5914</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>7798028883714</t>
+          <t>7798068820533</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>48220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 100 gr.</t>
+          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 250 gr.</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>5914</t>
+          <t>5915</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>7798068820533</t>
+          <t>7798068820373</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>248</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 250 gr.</t>
+          <t>NEBU A PISTON MAVERICK 403E</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>5915</t>
+          <t>5916</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>7798068820373</t>
+          <t>0652217763027</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>465</v>
+        <v>12753</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>NEBU A PISTON MAVERICK 403E</t>
+          <t>NEBU A PISTON MAVERICK 403D</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>5917</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>0652217763027</t>
+          <t>0652217700398</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -1841,137 +1841,137 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>NEBU A PISTON MAVERICK 403D</t>
+          <t>REP NEB PISTON KIT DE MASCARAS MAVERICK</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>5917</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>0652217700398</t>
+          <t>0652217523539</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>12753</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>REP NEB PISTON KIT DE MASCARAS MAVERICK</t>
+          <t>REP NEB PISTON AMPOLLA NEBU + PICO BUCAL MAVERICK</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>0652217523539</t>
+          <t>0652217609448</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>572</v>
+        <v>638</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>REP NEB PISTON AMPOLLA NEBU + PICO BUCAL MAVERICK</t>
+          <t>REP NEB PISTON MANGUERA PLASTICA MAVERICK</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0652217609448</t>
+          <t>0652217311617</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>638</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>REP NEB PISTON MANGUERA PLASTICA MAVERICK</t>
+          <t>MULETA ALUMINIO MAVERICK PAR (GRANDE) BT707</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5925</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0652217311617</t>
+          <t>0652217968057</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>388</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>MULETA ALUMINIO MAVERICK PAR (GRANDE) BT707</t>
+          <t>AFEITADORA MAVERICK SHAVER1</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>5925</t>
+          <t>5928</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0652217968057</t>
+          <t>0652217419429</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>7682</v>
+        <v>12793</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>AFEITADORA MAVERICK SHAVER1</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS VAINILLA x 1 unid.</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>5959</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0652217419429</t>
+          <t>7798149645635</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>12793</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS VAINILLA x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS CELESTE x 1 unid.</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>5959</t>
+          <t>596</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>7798149645635</t>
+          <t>7798149645628</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
@@ -1981,17 +1981,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS CELESTE x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS NEGRO x 1 unid.</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>5961</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>7798149645628</t>
+          <t>7798149645611</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -2001,17 +2001,17 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS NEGRO x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS ROSA x 1 unid.</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>5961</t>
+          <t>5962</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>7798149645611</t>
+          <t>7798149645604</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -2021,17 +2021,17 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS ROSA x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS LILA x 1 unid.</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>5962</t>
+          <t>5963</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>7798149645604</t>
+          <t>7798149645598</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -2041,117 +2041,117 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS LILA x 1 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 2 unid.</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>5963</t>
+          <t>5964</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>7798149645598</t>
+          <t>7798149645574</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>346</v>
+        <v>606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 2 unid.</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 4 unid.</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>5964</t>
+          <t>5965</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>7798149645574</t>
+          <t>7798149645567</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>606</v>
+        <v>687</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 4 unid.</t>
+          <t>CEPILLO NEUMATICO DELFIN CHICO (0763)</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>5965</t>
+          <t>5967</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>7798149645567</t>
+          <t>7795800570763</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>687</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>CEPILLO NEUMATICO DELFIN CHICO (0763)</t>
+          <t>TENS.ANEROIDE CORONET C/ESTETOSCOPIO TIPO ENFERMERO</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>5967</t>
+          <t>5968</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>7795800570763</t>
+          <t>7791914552794</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>496</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>TENS.ANEROIDE CORONET C/ESTETOSCOPIO TIPO ENFERMERO</t>
+          <t>JAC SOMBRA INDIVIDUAL BLANCO PERLADO 520/027</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>5968</t>
+          <t>5969</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>7791914552794</t>
+          <t>7798327346132</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>6005</v>
+        <v>907</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL BLANCO PERLADO 520/027</t>
+          <t>JAC SOMBRA INDIVIDUAL ROSA MARRON MATE 520/029</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>5969</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>7798327346132</t>
+          <t>7798327346156</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -2161,17 +2161,17 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL ROSA MARRON MATE 520/029</t>
+          <t>JAC SOMBRA INDIVIDUAL CHOCOLATE PERLADO 520/030</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>5972</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>7798327346156</t>
+          <t>7798327346163</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -2181,17 +2181,17 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL CHOCOLATE PERLADO 520/030</t>
+          <t>JAC SOMBRA INDIVIDUAL AZUL DESNATURADO MATE 520/031</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>5972</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>7798327346163</t>
+          <t>779832734617</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
@@ -2201,17 +2201,17 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL AZUL DESNATURADO MATE 520/031</t>
+          <t>JAC SOMBRA INDIVIDUAL GRIS MATE 520/032</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>779832734617</t>
+          <t>7798327346286</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -2221,17 +2221,17 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL GRIS MATE 520/032</t>
+          <t>JAC SOMBRA INDIVIDUAL NEGRO MATE 520/033</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>5975</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>7798327346286</t>
+          <t>7798327346187</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
@@ -2241,257 +2241,257 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL NEGRO MATE 520/033</t>
+          <t>JAC PALETA DE SOMBRAS x 12 COLORES 966</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>5975</t>
+          <t>5976</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>7798327346187</t>
+          <t>7798327348013</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>907</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>JAC PALETA DE SOMBRAS x 12 COLORES 966</t>
+          <t>TEST DE EMBARAZO IRAOLA</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>5976</t>
+          <t>5977</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>7798327348013</t>
+          <t>7798033108536</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>3552</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>TEST DE EMBARAZO IRAOLA</t>
+          <t>VENDA GASA IODOFORMADA TABLADA 7 cm x 3 mts (1690)</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>5977</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>7798033108536</t>
+          <t>779802199169</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>111</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>VENDA GASA IODOFORMADA TABLADA 7 cm x 3 mts (1690)</t>
+          <t>BOLSA AGUA CALIENTE BEBEFANTITOS CON FUNDA INFANTIL x 350 ml</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>598</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>779802199169</t>
+          <t>7793066700061</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>1872</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BOLSA AGUA CALIENTE BEBEFANTITOS CON FUNDA INFANTIL x 350 ml</t>
+          <t>GAL LECHE DE PEPINO x 300 cc</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>7793066700061</t>
+          <t>7798024621303</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>2677</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>GAL LECHE DE PEPINO x 300 cc</t>
+          <t>SEMBLANNT GEL EXFOLIANTE ESPUMOSO x 300 cc</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>5982</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>7798024621303</t>
+          <t>7798024629903</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>541</v>
+        <v>867</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT GEL EXFOLIANTE ESPUMOSO x 300 cc</t>
+          <t>SEMBLANNT CREMA ANTIARRUGAS Q10 x 60 grs</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>5982</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>7798024629903</t>
+          <t>7798024620887</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>867</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA ANTIARRUGAS Q10 x 60 grs</t>
+          <t>SEMBLANNT CREMA ANTIARRUGAS CUTIS SECO x 60 grs</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>7798024620887</t>
+          <t>7798024621914</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>1070</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA ANTIARRUGAS CUTIS SECO x 60 grs</t>
+          <t>SEMBLANNT CREMA BLANQUEADORA x 60 grs</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>7798024621914</t>
+          <t>7798024621969</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1034</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA BLANQUEADORA x 60 grs</t>
+          <t>SEMBLANNT EMULSIÓN LIMPIEZA DESMAQUILLANTE x 300 cc</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>5987</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>7798024621969</t>
+          <t>7798024629675</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>1019</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT EMULSIÓN LIMPIEZA DESMAQUILLANTE x 300 cc</t>
+          <t>MIKUELA AGUA MICELAR x 250 cc</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>7798024629675</t>
+          <t>7798024622348</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>873</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>MIKUELA AGUA MICELAR x 250 cc</t>
+          <t>ES QUITAESMALTE  FORTALECEDOR x 60 ml</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>7798024622348</t>
+          <t>0000077902306</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>561</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE  FORTALECEDOR x 60 ml</t>
+          <t>ES QUITAESMALTE  HUMECTANTE x 60 ml</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>5989</t>
+          <t>599</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>0000077902306</t>
+          <t>0000077900388</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -2501,157 +2501,157 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE  HUMECTANTE x 60 ml</t>
+          <t>ES QUITAESMALTE HUMECTANTE x 120 ml</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>0000077900388</t>
+          <t>000007796847</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>144</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE HUMECTANTE x 120 ml</t>
+          <t>ES TOALLITAS HUMEDAS FLOW PACK x 50 u.</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>5995</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>000007796847</t>
+          <t>7791199003608</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>231</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>ES TOALLITAS HUMEDAS FLOW PACK x 50 u.</t>
+          <t>ATOMPROTECT CREMA CORPORAL x 400cc</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>5995</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>7791199003608</t>
+          <t>7798149644829</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>367</v>
+        <v>585</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT CREMA CORPORAL x 400cc</t>
+          <t>ATOMPROTECT REPELENTE CON GLICERINA x 170cc</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>7798149644829</t>
+          <t>7798149645833</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>585</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT REPELENTE CON GLICERINA x 170cc</t>
+          <t>ATOMPROTECT SHAMPOO ANTICASPA x 400cc</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5998</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>7798149645833</t>
+          <t>7798149644898</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>372</v>
+        <v>417</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT SHAMPOO ANTICASPA x 400cc</t>
+          <t>ATOMPROTECT ACONDICIONADOR ANTICASPA x 400cc</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>7798149644898</t>
+          <t>7798149644904</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT ACONDICIONADOR ANTICASPA x 400cc</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>7798149644904</t>
+          <t>7798026340769</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. PIEL</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. AZUL</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>7798026340769</t>
+          <t>7798026340707</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
@@ -2661,37 +2661,37 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. AZUL</t>
+          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>7798026340707</t>
+          <t>7798026340776</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>396</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. PIEL</t>
+          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. ROJO</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>7798026340776</t>
+          <t>7798026340745</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
@@ -2701,37 +2701,37 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. ROJO</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. ROJO</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>7798026340745</t>
+          <t>7798026340752</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>523</v>
+        <v>664</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. ROJO</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>7798026340752</t>
+          <t>7798026340783</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
@@ -2741,17 +2741,17 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. PIEL</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. AZUL</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>601</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>7798026340783</t>
+          <t>7798026340721</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
@@ -2761,97 +2761,97 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. AZUL</t>
+          <t>AGUJA BD 13x3  30G x 1/2  CAJA x100u.</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>6011</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>7798026340721</t>
+          <t>0000078909717</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>664</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>AGUJA BD 13x3  30G x 1/2  CAJA x100u.</t>
+          <t>GAL GEL EFECTO HUMEDO x 250 gr AZUL</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>6011</t>
+          <t>6014</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>0000078909717</t>
+          <t>7798024629194</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>2118</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>GAL GEL EFECTO HUMEDO x 250 gr AZUL</t>
+          <t>XU PEGAMENTO DE PESTAÑAS C/ESPATULA x 10cc</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>6014</t>
+          <t>6018</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>7798024629194</t>
+          <t>7794922587147</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>363</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>XU PEGAMENTO DE PESTAÑAS C/ESPATULA x 10cc</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA GRIS</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>6018</t>
+          <t>6019</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>7794922587147</t>
+          <t>779802634082</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>1288</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA GRIS</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA VERDE</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>602</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>779802634082</t>
+          <t>7798026341131</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
@@ -2861,137 +2861,137 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA VERDE</t>
+          <t>HIPO STRIP  6 x 100 mm CAJA x 10 unid.</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>6021</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>7798026341131</t>
+          <t>7798026340592</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>396</v>
+        <v>784</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>HIPO STRIP  6 x 100 mm CAJA x 10 unid.</t>
+          <t>HIPO SILI-CARE 4 cm x 15 cm SOBRE x 2 apósitos.</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>6021</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>7798026340592</t>
+          <t>7798026343111</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>784</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>HIPO SILI-CARE 4 cm x 15 cm SOBRE x 2 apósitos.</t>
+          <t>CREMA OXIG TABLADA 30 v 100 cc.HIERBA</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>6023</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>7798026343111</t>
+          <t>7798021991409</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>6578</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>CREMA OXIG TABLADA 30 v 100 cc.HIERBA</t>
+          <t>CREMA OXIG TABLADA 30 VOL. x 100 cc</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>6023</t>
+          <t>6024</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>7798021991409</t>
+          <t>7798021991393</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>CREMA OXIG TABLADA 30 VOL. x 100 cc</t>
+          <t>ACEITE ALMENDRAS DULCE TIPO TABLADAx  40 cc</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>6024</t>
+          <t>6025</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>7798021991393</t>
+          <t>7798021991188</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>207</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>ACEITE ALMENDRAS DULCE TIPO TABLADAx  40 cc</t>
+          <t>DMG CREMA MANOS Y CUERPO SWEET CREAM VAINILLA x 60 grs.</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>6025</t>
+          <t>603</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>7798021991188</t>
+          <t>7793090500521</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO SWEET CREAM VAINILLA x 60 grs.</t>
+          <t>DMG CREMA MANOS Y CUERPO SOFT BUTTER KARITE x 60 grs.</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>6031</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>7793090500521</t>
+          <t>7793090500538</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -3001,17 +3001,17 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO SOFT BUTTER KARITE x 60 grs.</t>
+          <t>DMG CREMA MANOS Y CUERPO FUNNY BERRY FRUTOS ROJO x 60 grs.</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>6032</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>7793090500538</t>
+          <t>7793090500514</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -3021,21 +3021,161 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO FUNNY BERRY FRUTOS ROJO x 60 grs.</t>
+          <t>OTO DEPILOVE CUERPO CREMA DEPILATORIA x 30 g</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>6032</t>
+          <t>6051</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>7793090500514</t>
+          <t>7798008964723</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>254</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE HOMBRE CREMA DEPILATORIA x 30 g</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>6052</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>7798008964761</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE INTIMO CREMA DEPILATORIA x 30 g</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>6053</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>7798008964747</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE ROSTRO CREMA DEPILATORIA x 10 g</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>6054</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>7798008964709</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL HIDRATANTE POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>6055</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>7798382383134</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL REAFIRMANTE POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>6056</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>7798382383141</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL NUTRICION POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>6057</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>7798382383158</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>ACEITE DE ALMENDRAS PURO SANADROG x 30 cc</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>6071</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>7798068824814</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/data/proveedor/furey/nuevos/furey_only.xlsx
+++ b/data/proveedor/furey/nuevos/furey_only.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,138 +475,138 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>730</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>CLORURO DE MAGNESIO DROGAL  POTE x 200 gr</t>
+          <t>BROCHA AFEITAR DE MADERA</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>598</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>7798124240466</t>
+          <t>7798052375285</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>467</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>PUMP GEL ANTIFAZ RELAX FACIAL</t>
+          <t>CLORURO DE MAGNESIO DROGAL  POTE x 200 gr</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>662</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0000008733895</t>
+          <t>7798124240466</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1365</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>PUMP GEL VINCHA PARA FIEBRE</t>
+          <t>PUMP GEL ANTIFAZ RELAX FACIAL</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>671</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0000008734452</t>
+          <t>0000008733895</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1365</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>PUMP GEL SUJETADOR CON PACK</t>
+          <t>PUMP GEL VINCHA PARA FIEBRE</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>724</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0000008737412</t>
+          <t>0000008734452</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1950</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>INVISIBLE OGIB PUNTA PROTEG x 144u NEGRO</t>
+          <t>PUMP GEL SUJETADOR CON PACK</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>796</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7798087370019</t>
+          <t>0000008737412</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1273</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>PLANTILLAS S/ARCO FUREY No 19</t>
+          <t>INVISIBLE OGIB PUNTA PROTEG x 144u NEGRO</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>984</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7798052371546</t>
+          <t>7798087370019</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>188</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>PLANTILLAS S/ARCO FUREY No 20</t>
+          <t>PLANTILLAS S/ARCO FUREY No 19</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -615,18 +615,18 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>PLANTILLAS S/ARCO FUREY No 21</t>
+          <t>PLANTILLAS S/ARCO FUREY No 20</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -635,18 +635,18 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>PLANTILLAS S/ARCO FUREY No 22</t>
+          <t>PLANTILLAS S/ARCO FUREY No 21</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -655,38 +655,38 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>PLANTILLAS S/ARCO FUREY No 35</t>
+          <t>PLANTILLAS S/ARCO FUREY No 22</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7798052371553</t>
+          <t>7798052371546</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>273</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>PLANTILLAS S/ARCO FUREY No 45</t>
+          <t>PLANTILLAS S/ARCO FUREY No 35</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -695,38 +695,38 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>ESPALDERA ELASTICA FUREY N. 1</t>
+          <t>PLANTILLAS S/ARCO FUREY No 45</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7798052378675</t>
+          <t>7798052371553</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2104</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>ESPALDERA ELASTICA FUREY N. 2</t>
+          <t>ESPALDERA ELASTICA FUREY N. 1</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -735,18 +735,18 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2269</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>ESPALDERA ELASTICA FUREY N. 3</t>
+          <t>ESPALDERA ELASTICA FUREY N. 2</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -755,18 +755,18 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2269</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>ESPALDERA ELASTICA FUREY N. 4</t>
+          <t>ESPALDERA ELASTICA FUREY N. 3</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -775,238 +775,238 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2352</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. ROJO</t>
+          <t>ESPALDERA ELASTICA FUREY N. 4</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7798026340738</t>
+          <t>7798052378675</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>396</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. AZUL</t>
+          <t>PEINE BEBE COLOR x 6 unidades</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7798026340714</t>
+          <t>7798052376749</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>523</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>PASTILLERO 1 DOSIS DIARIA SEMANAL VERTICE</t>
+          <t>PEINE BOLSILLO AZUL / NEGRO  x 12 unid</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1412</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0643131461359</t>
+          <t>7798052376756</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>137</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>CH CEPILLO CABELLO + PEINE BEBE CELESTE</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. ROJO</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>2083</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7798052376114</t>
+          <t>7798026340738</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>GEL EFECTO HUMEDO FUREY x 250 gr AZUL</t>
+          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. AZUL</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>2202</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7798052370778</t>
+          <t>7798026340714</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>363</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GEL EFECTO HUMEDO FUREY x 250 gr INCOLORO</t>
+          <t>PASTILLERO 1 DOSIS DIARIA SEMANAL VERTICE</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7798052370778</t>
+          <t>0643131461359</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>363</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>NEO TOBILLERA SIMPLE T2 [M]</t>
+          <t>CH CEPILLO CABELLO + PEINE BEBE CELESTE</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2083</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3000022401028</t>
+          <t>7798052376114</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1146</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>NEO TOBILLERA SIMPLE T3 [L]</t>
+          <t>GEL EFECTO HUMEDO FUREY x 250 gr AZUL</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>2202</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3000022402032</t>
+          <t>7798052370778</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1146</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>CH MORDILLO SILICONA LLAVE ROSA</t>
+          <t>GEL EFECTO HUMEDO FUREY x 250 gr INCOLORO</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>3227</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7798052372208</t>
+          <t>7798052370778</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>446</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>CH MORDILLO SILICONA LLAVE VERDE</t>
+          <t>NEO TOBILLERA SIMPLE T2 [M]</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>3228</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7798052372208</t>
+          <t>3000022401028</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>446</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>COLLAR DE FILADELFIA COLTEX EXTRA GRANDE</t>
+          <t>NEO TOBILLERA SIMPLE T3 [L]</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>3508</t>
+          <t>271</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0000COL 002 G</t>
+          <t>3000022402032</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2658</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>CH MORDILLO SILICONA PEZ CELESTE</t>
+          <t>CH MORDILLO SILICONA LLAVE ROSA</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>3565</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1015,18 +1015,18 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>446</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>CH MORDILLO SILICONA PEZ ROSA</t>
+          <t>CH MORDILLO SILICONA LLAVE VERDE</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>3566</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1035,143 +1035,143 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>446</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>CH MORDILLO SILICONA PEZ VERDE</t>
+          <t>COLLAR DE FILADELFIA COLTEX EXTRA GRANDE</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>7798052372208</t>
+          <t>0000COL 002 G</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>446</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>AGUJA BREMEN 16x5  25G x 5/8 CAJAx100u</t>
+          <t>CH MORDILLO SILICONA PEZ CELESTE</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>3565</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>7791914552565</t>
+          <t>7798052372208</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>453</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>CH CHUP MACIZO C/ESTUCHE ANAT. +3M ROSA</t>
+          <t>CH MORDILLO SILICONA PEZ ROSA</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>3566</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>7798052376763</t>
+          <t>7798052372208</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>755</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>CREMA OXIG TABLADA 20 VOL. x 100 cc</t>
+          <t>CH MORDILLO SILICONA PEZ VERDE</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>3842</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>7798021991362</t>
+          <t>7798052372208</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>204</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>CH CHUP MACIZO C/ESTUCHE CLASICO +3M ROSA</t>
+          <t>AGUJA BREMEN 16x5  25G x 5/8 CAJAx100u</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>7798052372512</t>
+          <t>7791914552565</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>755</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>CH CHUP MACIZO C/ESTUCHE CLASICO +3M VERDE</t>
+          <t>GUANTE LATEX AS CHICO  x 100 u.</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>3915</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>7798052372512</t>
+          <t>7792366820158</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>755</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>CH CHUP MACIZO C/ESTUCHE CLASICO +6M ROSA</t>
+          <t>CH CHUP MACIZO C/ESTUCHE ANAT. +3M ROSA</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>3917</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>7798052372529</t>
+          <t>7798052376763</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -1181,2001 +1181,3701 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>CH CHUP MACIZO C/ESTUCHE CLASICO +6M CELESTE</t>
+          <t>CREMA OXIG TABLADA 20 VOL. x 100 cc</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>7798052372529</t>
+          <t>7798021991362</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>755</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ALG BABY FECULA TALQUERA x 200 grs.</t>
+          <t>CH CHUP MACIZO C/ESTUCHE CLASICO +3M ROSA</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>3966</t>
+          <t>3914</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>7791274196546</t>
+          <t>7798052372512</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>438</v>
+        <v>755</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>CH MAM CON ESTUCHE 250 cc VERDE</t>
+          <t>CH CHUP MACIZO C/ESTUCHE CLASICO +3M VERDE</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>4036</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>7798052373267</t>
+          <t>7798052372512</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>723</v>
+        <v>755</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>CH MAM CON ESTUCHE 140 cc ROSA</t>
+          <t>CH CHUP MACIZO C/ESTUCHE CLASICO +6M ROSA</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>7798052373274</t>
+          <t>7798052372529</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>723</v>
+        <v>755</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>CH MAM CON ESTUCHE 140 cc AMARILLO</t>
+          <t>CH CHUP MACIZO C/ESTUCHE CLASICO +6M CELESTE</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>4039</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>7798052373274</t>
+          <t>7798052372529</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>723</v>
+        <v>755</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>CH MAM CON ESTUCHE 140 cc VERDE</t>
+          <t>ALG BABY FECULA TALQUERA x 200 grs.</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>7798052373274</t>
+          <t>7791274196546</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>723</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>PUMP GEL MINI PACK 15x15 cm</t>
+          <t>CH MAM CON ESTUCHE 250 cc VERDE</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>0000008737656</t>
+          <t>7798052373267</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>543</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>PUMP GEL CHICO PACK 15x25 cm</t>
+          <t>CH MAM CON ESTUCHE 140 cc ROSA</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>4304</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>0000008734202</t>
+          <t>7798052373274</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>598</v>
+        <v>797</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>PUMP GEL GRANDE PACK 25x23 cm</t>
+          <t>CH MAM CON ESTUCHE 140 cc AMARILLO</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>4305</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0000008761624</t>
+          <t>7798052373274</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>808</v>
+        <v>797</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>GUANTE NITRILO ELIT 100u NEGRO CHICO</t>
+          <t>CH MAM CON ESTUCHE 140 cc VERDE</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>4331</t>
+          <t>404</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>7798140840152</t>
+          <t>7798052373274</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1452</v>
+        <v>797</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>JMY ESPONJA DE BAÑO POM POM EXFOLIANTE RED PLASTICA E2000</t>
+          <t>PUMP GEL MINI PACK 15x15 cm</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>0796250715596</t>
+          <t>0000008737656</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>305</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GUANTE NITRILO ELIT 100u NEGRO GRANDE</t>
+          <t>PUMP GEL CHICO PACK 15x25 cm</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>7798140840176</t>
+          <t>0000008734202</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1452</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GUANTE NITRILO ELIT 100u AZUL MEDIANO</t>
+          <t>PUMP GEL GRANDE PACK 25x23 cm</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>7798140840114</t>
+          <t>0000008761624</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>1452</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>ALG SHAMPOO KIDS MELOCOTON/DURAZNO x 350 ml</t>
+          <t>GUANTE NITRILO ELIT 100u NEGRO CHICO</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>4767</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>0779127192593</t>
+          <t>7798140840152</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>383</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>JERINGA DARLING  3 cc 40/8 x 100</t>
+          <t>JMY ESPONJA DE BAÑO POM POM EXFOLIANTE RED PLASTICA (E2000)</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>7792366573634</t>
+          <t>0796250715596</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>1628</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BOLSA COLEC.ORINA EUROMIX K206 AMBULAT.N3B x 750 ml</t>
+          <t>GUANTE NITRILO ELIT 100u NEGRO GRANDE</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>5018</t>
+          <t>442</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>7798161673852</t>
+          <t>7798140840176</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>354</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BOLSA COLEC.ORINA EUROMIX K207 N1A x 2000 ml</t>
+          <t>GUANTE NITRILO ELIT 100u AZUL MEDIANO</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>7798161673869</t>
+          <t>7798140840114</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>179</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>JAC PEEL OFF  MASCARA PARA UÑAS 633</t>
+          <t>ALG SHAMPOO KIDS MELOCOTON/DURAZNO x 350 ml</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>4767</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>0779821489573</t>
+          <t>0779127192593</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>130</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>JERINGA NEOJET PICO CATETER 60 cc S/A x u</t>
+          <t>JERINGA DARLING  3 cc 40/8 x 100</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>5013</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>7792366118518</t>
+          <t>7792366573634</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>79</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>JAC SET MAQUILLAJE 1O SOMBRAS COLOR CALIDO 742</t>
+          <t>BOLSA COLEC.ORINA EUROMIX K206 AMBULAT.N3B x 750 ml</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>5018</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>7798327342493</t>
+          <t>7798161673852</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>454</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>JAC SET MAQUILLAJE 1O SOMBRAS COLOR FRIO 743</t>
+          <t>BOLSA COLEC.ORINA EUROMIX K207 N1A C/ DESAG x 2000 ml</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>5248</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>7798327342509</t>
+          <t>7798161673869</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>642</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>JMY CORTA UÑAS CHICO BLISTER J608</t>
+          <t>JAC PEEL OFF  MASCARA PARA UÑAS 633</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>5106</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>0076753706087</t>
+          <t>0779821489573</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>307</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>DIS PERFUME INFANTIL RIVER PLATE x 100 ml 43469</t>
+          <t>JERINGA NEOJET PICO CATETER 60 cc S/A x u</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>519</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>7798327343469</t>
+          <t>7792366118518</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2917</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>JMY CEPILLO NEUMATICO OVAL VIOLETA</t>
+          <t>JAC SET MAQUILLAJE 1O SOMBRAS COLOR CALIDO 742</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>5732</t>
+          <t>5247</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>7794922549565</t>
+          <t>7798327342493</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>JMY CEPILLO NEUMATICO OVAL RECTO AZUL</t>
+          <t>JAC SET MAQUILLAJE 1O SOMBRAS COLOR FRIO 743</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>5733</t>
+          <t>5248</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>7794922549565</t>
+          <t>7798327342509</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>473</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>OG CEPILLO NEUMATICO PALETA (404)</t>
+          <t>JMY CORTA UÑAS CHICO BLISTER (J608)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>5398</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>8890000004045</t>
+          <t>0076753706087</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>1506</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>OG CEPILLO NEUMATICO CHICO (406)</t>
+          <t>DIS PERFUME INFANTIL RIVER PLATE x 100 ml 43469</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>8890000004069</t>
+          <t>7798327343469</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>1169</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°22 BALON 5</t>
+          <t>JMY CEPILLO NEUMATICO OVAL VIOLETA</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>5847</t>
+          <t>5732</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>7792366011345</t>
+          <t>7794922549565</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>320</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>ANDADOR ROLLATOR CON 4 RUEDAS SILFAB A3022G</t>
+          <t>JMY CEPILLO NEUMATICO OVAL RECTO AZUL</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>5733</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>7798028883714</t>
+          <t>7794922549565</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>52078</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 100 gr.</t>
+          <t>OG CEPILLO NEUMATICO PALETA (404)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>5914</t>
+          <t>581</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>7798068820533</t>
+          <t>8890000004045</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>279</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 250 gr.</t>
+          <t>OG CEPILLO NEUMATICO CHICO (406)</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>5915</t>
+          <t>5812</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>7798068820373</t>
+          <t>8890000004069</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>520</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>NEBU A PISTON MAVERICK 403E</t>
+          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°22 BALON 5</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>5847</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>0652217763027</t>
+          <t>7792366011345</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>12753</v>
+        <v>559</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>NEBU A PISTON MAVERICK 403D</t>
+          <t>SONDA FOLEY DE LATEX 2 VIAS EPIC N°24 BALON 5</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>5917</t>
+          <t>5848</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>0652217700398</t>
+          <t>7792366011358</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>12753</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>REP NEB PISTON KIT DE MASCARAS MAVERICK</t>
+          <t>ANDADOR ROLLATOR CON 4 RUEDAS SILFAB A3022G</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>5919</t>
+          <t>587</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>0652217523539</t>
+          <t>7798028883714</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>572</v>
+        <v>75601</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>REP NEB PISTON AMPOLLA NEBU + PICO BUCAL MAVERICK</t>
+          <t>BORATO DE SODIO SOBRE DROGAL 25gr.x 25u</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>5908</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>0652217609448</t>
+          <t>7798124241005</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>638</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>REP NEB PISTON MANGUERA PLASTICA MAVERICK</t>
+          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 100 gr.</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>5914</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0652217311617</t>
+          <t>7798068820533</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>MULETA ALUMINIO MAVERICK PAR (GRANDE) BT707</t>
+          <t>BICARBONATO DE SODIO DASIPA ESTUCHE x 250 gr.</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>5925</t>
+          <t>5915</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>0652217968057</t>
+          <t>7798068820373</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>7682</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AFEITADORA MAVERICK SHAVER1</t>
+          <t>NEBU A PISTON MAVERICK 403E</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>5916</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>0652217419429</t>
+          <t>0652217763027</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>12793</v>
+        <v>19154</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS VAINILLA x 1 unid.</t>
+          <t>NEBU A PISTON MAVERICK 403D</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>5959</t>
+          <t>5917</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>7798149645635</t>
+          <t>0652217700398</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>346</v>
+        <v>19154</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS CELESTE x 1 unid.</t>
+          <t>REP NEB PISTON KIT DE MASCARAS MAVERICK</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>5919</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>7798149645628</t>
+          <t>0652217523539</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>346</v>
+        <v>826</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS NEGRO x 1 unid.</t>
+          <t>REP NEB PISTON AMPOLLA NEBU + PICO BUCAL MAVERICK</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>5961</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>7798149645611</t>
+          <t>0652217609448</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>346</v>
+        <v>921</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS ROSA x 1 unid.</t>
+          <t>REP NEB PISTON MANGUERA PLASTICA MAVERICK</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>5962</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>7798149645604</t>
+          <t>0652217311617</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>346</v>
+        <v>561</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS LILA x 1 unid.</t>
+          <t>ANDADOR ROLLATOR MAVERICK BT809L</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>5963</t>
+          <t>5924</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>7798149645598</t>
+          <t>0652217281224</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>346</v>
+        <v>60445</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 2 unid.</t>
+          <t>MULETA ALUMINIO MAVERICK PAR (GRANDE) BT707</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>5964</t>
+          <t>5925</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>7798149645574</t>
+          <t>0652217968057</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>606</v>
+        <v>15276</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 4 unid.</t>
+          <t>AFEITADORA MAVERICK SHAVER1</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>5965</t>
+          <t>5928</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>7798149645567</t>
+          <t>0652217419429</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>687</v>
+        <v>19763</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>CEPILLO NEUMATICO DELFIN CHICO (0763)</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS VAINILLA x 1 unid.</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>5967</t>
+          <t>5959</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>7795800570763</t>
+          <t>7798149645635</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>520</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>TENS.ANEROIDE CORONET C/ESTETOSCOPIO TIPO ENFERMERO</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS CELESTE x 1 unid.</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>5968</t>
+          <t>596</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>7791914552794</t>
+          <t>7798149645628</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>9608</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL BLANCO PERLADO 520/027</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS NEGRO x 1 unid.</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>5969</t>
+          <t>5961</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>7798327346132</t>
+          <t>7798149645611</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>907</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL ROSA MARRON MATE 520/029</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS ROSA x 1 unid.</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>5962</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>7798327346156</t>
+          <t>7798149645604</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>907</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL CHOCOLATE PERLADO 520/030</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS LILA x 1 unid.</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>5972</t>
+          <t>5963</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>7798327346163</t>
+          <t>7798149645598</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>907</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL AZUL DESNATURADO MATE 520/031</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 2 unid.</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5964</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>779832734617</t>
+          <t>7798149645574</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>907</v>
+        <v>606</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL GRIS MATE 520/032</t>
+          <t>ATOMPROTECT COLITA REPELENTE DE PIOJOS SET x 4 unid.</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>5965</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>7798327346286</t>
+          <t>7798149645567</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>907</v>
+        <v>687</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>JAC SOMBRA INDIVIDUAL NEGRO MATE 520/033</t>
+          <t>CEPILLO NEUMATICO DELFIN CHICO (0763)</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>5975</t>
+          <t>5967</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>7798327346187</t>
+          <t>7795800570763</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>907</v>
+        <v>618</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>JAC PALETA DE SOMBRAS x 12 COLORES 966</t>
+          <t>TENS.ANEROIDE CORONET C/ESTETOSCOPIO TIPO ENFERMERO</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>5976</t>
+          <t>5968</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>7798327348013</t>
+          <t>7791914552794</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>3552</v>
+        <v>11549</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>TEST DE EMBARAZO IRAOLA</t>
+          <t>JAC SOMBRA INDIVIDUAL BLANCO PERLADO 520/027</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>5977</t>
+          <t>5969</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>7798033108536</t>
+          <t>7798327346132</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>163</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>VENDA GASA IODOFORMADA TABLADA 7 cm x 3 mts (1690)</t>
+          <t>JAC SOMBRA INDIVIDUAL ROSA MARRON MATE 520/029</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>779802199169</t>
+          <t>7798327346156</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>1872</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BOLSA AGUA CALIENTE BEBEFANTITOS CON FUNDA INFANTIL x 350 ml</t>
+          <t>JAC SOMBRA INDIVIDUAL CHOCOLATE PERLADO 520/030</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>5972</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>7793066700061</t>
+          <t>7798327346163</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>2677</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>GAL LECHE DE PEPINO x 300 cc</t>
+          <t>JAC SOMBRA INDIVIDUAL AZUL DESNATURADO MATE 520/031</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>7798024621303</t>
+          <t>779832734617</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>541</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT GEL EXFOLIANTE ESPUMOSO x 300 cc</t>
+          <t>JAC SOMBRA INDIVIDUAL GRIS MATE 520/032</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>5982</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>7798024629903</t>
+          <t>7798327346286</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>867</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA ANTIARRUGAS Q10 x 60 grs</t>
+          <t>JAC SOMBRA INDIVIDUAL NEGRO MATE 520/033</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>5975</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>7798024620887</t>
+          <t>7798327346187</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>1070</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA ANTIARRUGAS CUTIS SECO x 60 grs</t>
+          <t>JAC PALETA DE SOMBRAS x 12 COLORES 966</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>5984</t>
+          <t>5976</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>7798024621914</t>
+          <t>7798327348013</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>1034</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT CREMA BLANQUEADORA x 60 grs</t>
+          <t>TEST DE EMBARAZO IRAOLA</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>5985</t>
+          <t>5977</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>7798024621969</t>
+          <t>7798033108536</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>1019</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>SEMBLANNT EMULSIÓN LIMPIEZA DESMAQUILLANTE x 300 cc</t>
+          <t>VENDA GASA IODOFORMADA TABLADA 7 cm x 3 mts (1690)</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>5978</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>7798024629675</t>
+          <t>779802199169</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>873</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>MIKUELA AGUA MICELAR x 250 cc</t>
+          <t>BOLSA AGUA CALIENTE BEBEFANTITOS CON FUNDA INFANTIL x 350 ml</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>598</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>7798024622348</t>
+          <t>7793066700061</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>561</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE  FORTALECEDOR x 60 ml</t>
+          <t>GAL LECHE DE PEPINO x 300 cc</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>5989</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>0000077902306</t>
+          <t>7798024621303</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>144</v>
+        <v>780</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE  HUMECTANTE x 60 ml</t>
+          <t>SEMBLANNT GEL EXFOLIANTE ESPUMOSO x 300 cc</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>5982</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>0000077900388</t>
+          <t>7798024629903</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>144</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>ES QUITAESMALTE HUMECTANTE x 120 ml</t>
+          <t>SEMBLANNT CREMA ANTIARRUGAS Q10 x 60 grs</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>000007796847</t>
+          <t>7798024620887</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>231</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>ES TOALLITAS HUMEDAS FLOW PACK x 50 u.</t>
+          <t>SEMBLANNT CREMA ANTIARRUGAS CUTIS SECO x 60 grs</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>5995</t>
+          <t>5984</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>7791199003608</t>
+          <t>7798024621914</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>367</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT CREMA CORPORAL x 400cc</t>
+          <t>SEMBLANNT CREMA BLANQUEADORA x 60 grs</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>5985</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>7798149644829</t>
+          <t>7798024621969</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>585</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT REPELENTE CON GLICERINA x 170cc</t>
+          <t>SEMBLANNT EMULSIÓN LIMPIEZA DESMAQUILLANTE x 300 cc</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5987</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>7798149645833</t>
+          <t>7798024629675</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>372</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT SHAMPOO ANTICASPA x 400cc</t>
+          <t>MIKUELA AGUA MICELAR x 250 cc</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>5998</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>7798149644898</t>
+          <t>7798024622348</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>417</v>
+        <v>779</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>ATOMPROTECT ACONDICIONADOR ANTICASPA x 400cc</t>
+          <t>ES QUITAESMALTE  FORTALECEDOR x 60 ml</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>7798149644904</t>
+          <t>0000077902306</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>383</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. PIEL</t>
+          <t>ES QUITAESMALTE  HUMECTANTE x 60 ml</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>599</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>7798026340769</t>
+          <t>0000077900388</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>396</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. AZUL</t>
+          <t>ES QUITAESMALTE HUMECTANTE x 120 ml</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>7798026340707</t>
+          <t>000007796847</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>396</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. PIEL</t>
+          <t>ES TOALLITAS HUMEDAS FLOW PACK x 50 u.</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>5995</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>7798026340776</t>
+          <t>7791199003608</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>523</v>
+        <v>367</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. ROJO</t>
+          <t>ATOMPROTECT CREMA CORPORAL x 400cc</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>7798026340745</t>
+          <t>7798149644829</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>523</v>
+        <v>585</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. ROJO</t>
+          <t>ATOMPROTECT REPELENTE CON GLICERINA x 170cc</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>7798026340752</t>
+          <t>7798149645833</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>664</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. PIEL</t>
+          <t>ATOMPROTECT SHAMPOO ANTICASPA x 400cc</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5998</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>7798026340783</t>
+          <t>7798149644898</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>664</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. AZUL</t>
+          <t>ATOMPROTECT ACONDICIONADOR ANTICASPA x 400cc</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>7798026340721</t>
+          <t>7798149644904</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>664</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>AGUJA BD 13x3  30G x 1/2  CAJA x100u.</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>6011</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>0000078909717</t>
+          <t>7798026340769</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>2331</v>
+        <v>710</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>GAL GEL EFECTO HUMEDO x 250 gr AZUL</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. AZUL</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>6014</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>7798024629194</t>
+          <t>7798026340707</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>363</v>
+        <v>710</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>XU PEGAMENTO DE PESTAÑAS C/ESPATULA x 10cc</t>
+          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>6018</t>
+          <t>6005</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>7794922587147</t>
+          <t>7798026340776</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>1288</v>
+        <v>937</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA GRIS</t>
+          <t>HIPO VENDA ADHERENTE FLEX  7,5cm x 4,5mts. ROJO</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>779802634082</t>
+          <t>7798026340745</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>396</v>
+        <v>937</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA VERDE</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. ROJO</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>7798026341131</t>
+          <t>7798026340752</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>396</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>HIPO STRIP  6 x 100 mm CAJA x 10 unid.</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. PIEL</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>6021</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>7798026340592</t>
+          <t>7798026340783</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>784</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>HIPO SILI-CARE 4 cm x 15 cm SOBRE x 2 apósitos.</t>
+          <t>HIPO VENDA ADHERENTE FLEX 10cm x 4,5mts. AZUL</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>601</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>7798026343111</t>
+          <t>7798026340721</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>6578</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>CREMA OXIG TABLADA 30 v 100 cc.HIERBA</t>
+          <t>AGUJA BD 13x3  30G x 1/2  CAJA x100u.</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>6023</t>
+          <t>6011</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>7798021991409</t>
+          <t>0000078909717</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>212</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>CREMA OXIG TABLADA 30 VOL. x 100 cc</t>
+          <t>GAL GEL EFECTO HUMEDO x 250 gr AZUL</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>6024</t>
+          <t>6014</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>7798021991393</t>
+          <t>7798024629194</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>207</v>
+        <v>512</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>ACEITE ALMENDRAS DULCE TIPO TABLADAx  40 cc</t>
+          <t>VENDA YESO FRAGUADO RAPIDO FAVE 15 CM x 4 mts</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>6025</t>
+          <t>6016</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>7798021991188</t>
+          <t>0000077983015</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>256</v>
+        <v>739</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO SWEET CREAM VAINILLA x 60 grs.</t>
+          <t>XU PEGAMENTO DE PESTAÑAS C/ESPATULA x 10cc</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>6018</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>7793090500521</t>
+          <t>7794922587147</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>254</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO SOFT BUTTER KARITE x 60 grs.</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA GRIS</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>6031</t>
+          <t>6019</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>7793090500538</t>
+          <t>779802634082</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>254</v>
+        <v>710</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>DMG CREMA MANOS Y CUERPO FUNNY BERRY FRUTOS ROJO x 60 grs.</t>
+          <t>HIPO VENDA ADHERENTE FLEX  5cm x 4,5mts. CAMUFLADA VERDE</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>6032</t>
+          <t>602</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>7793090500514</t>
+          <t>7798026341131</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>254</v>
+        <v>710</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>OTO DEPILOVE CUERPO CREMA DEPILATORIA x 30 g</t>
+          <t>HIPO STRIP  6 x 100 mm CAJA x 10 unid.</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>6051</t>
+          <t>6021</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>7798008964723</t>
+          <t>7798026340592</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>165</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>OTO DEPILOVE HOMBRE CREMA DEPILATORIA x 30 g</t>
+          <t>HIPO SILI-CARE 4 cm x 15 cm SOBRE x 2 apósitos.</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>6052</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>7798008964761</t>
+          <t>7798026343111</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>165</v>
+        <v>13133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>OTO DEPILOVE INTIMO CREMA DEPILATORIA x 30 g</t>
+          <t>CREMA OXIG TABLADA 30 v 100 cc.HIERBA</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>6053</t>
+          <t>6023</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>7798008964747</t>
+          <t>7798021991409</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>165</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>OTO DEPILOVE ROSTRO CREMA DEPILATORIA x 10 g</t>
+          <t>CREMA OXIG TABLADA 30 VOL. x 100 cc</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>6054</t>
+          <t>6024</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>7798008964709</t>
+          <t>7798021991393</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>61</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>OTO CREMA CORPORAL HIDRATANTE POMO x 250 g</t>
+          <t>ACEITE ALMENDRAS DULCE TIPO TABLADAx  40 cc</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>6055</t>
+          <t>6025</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>7798382383134</t>
+          <t>7798021991188</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>574</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>OTO CREMA CORPORAL REAFIRMANTE POMO x 250 g</t>
+          <t>JAC SOMBRA DUO  ROJO LADRILLO Y ROSA VIEJO 521/029</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>6056</t>
+          <t>6027</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>7798382383141</t>
+          <t>7798327346224</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>574</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>OTO CREMA CORPORAL NUTRICION POMO x 250 g</t>
+          <t>JAC SOMBRA DUO CHOCOLATE Y DURAZO 521/026</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>6057</t>
+          <t>6028</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>7798382383158</t>
+          <t>77983273462</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>574</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
+          <t>JAC SOMBRA DUO VIOLETA GRISACEO Y LILA CLARO 521/030</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>6029</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>7798327346231</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>DMG CREMA MANOS Y CUERPO SWEET CREAM VAINILLA x 60 grs.</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>7793090500521</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>DMG CREMA MANOS Y CUERPO SOFT BUTTER KARITE x 60 grs.</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>6031</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>7793090500538</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>DMG CREMA MANOS Y CUERPO FUNNY BERRY FRUTOS ROJO x 60 grs.</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>6032</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>7793090500514</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº10 202 NYC x 125 ml</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>6042</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>7793090022108</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº11 SER x 125 ml</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>6043</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>7793090022115</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº12 OK UNO x 125 ml</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>6044</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>7793090023013</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº13 SALVAJE x 125 ml</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>6045</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>779309002401</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº14 202 MEN NYC x 125 ml</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>6046</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>7793090024027</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº15 10 MILES x 125 ml</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>6047</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>7793090024034</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº16 MAD BOY x 125 ml</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>6048</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>7793090024041</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº17 INVENCIBLE x 125 ml</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>6049</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>7793090024058</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>ACQUA EDT Nº18 KENT x 125 ml</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>7793090024065</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE CUERPO CREMA DEPILATORIA x 30 g</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>6051</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>7798008964723</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE HOMBRE CREMA DEPILATORIA x 30 g</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>6052</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>7798008964761</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE INTIMO CREMA DEPILATORIA x 30 g</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>6053</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>7798008964747</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>OTO DEPILOVE ROSTRO CREMA DEPILATORIA x 10 g</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>6054</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>7798008964709</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL HIDRATANTE POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>6055</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>7798382383134</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL REAFIRMANTE POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>6056</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>7798382383141</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>OTO CREMA CORPORAL NUTRICION POMO x 250 g</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>6057</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>7798382383158</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>OTOFEM GEL VAGINAL HIDRATENTE Y HUMECTANTE POMO x 40 grs</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>6068</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>7798382384117</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>OTOFEM JABON INTIMO DE HIGIENE DIARIA PH3,5 POMO x 150 ml</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>6069</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>7798382384087</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
           <t>ACEITE DE ALMENDRAS PURO SANADROG x 30 cc</t>
         </is>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>6071</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>7798068824814</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
-        <v>367</v>
+      <c r="D159" s="2" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N. 7 C BLANCO</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>6072</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>7798052377234</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N. 7 C VERDE</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>6073</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>7798052377241</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N. 7 C AZUL</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>6074</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>7798052377227</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N.11B VERDE</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>6075</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>7798052377272</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N.11B ROSA</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>6076</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>7798052377265</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N.11B AZUL</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>6077</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>7798052377258</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N.21 C</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>6078</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>7798052377289</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N. 5 C VERDE</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>6081</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>779805237721</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N. 5 C ROSA</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>6082</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>7798052377203</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>CH ESTUCHE N. 5 C AZUL</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>6083</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>7798052377197</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>TELA AD. AJEC N°3 x 27 r 1,3 cm x 1,8 mts</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>6084</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>0000077925114</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>TELA AD. AJEC N°5 x 18 r 1,3 cm x 3,5 mts</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>6085</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>0000077923349</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>TELA AD. AJEC N°6 x 12 r 2,5 cm x 3,5 mts</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>6086</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>7798035950331</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>TELA AD. AJEC N°7 x u.  5 cm x 3,5 mts</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>7798035950218</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>TELA AD. AJEC N°9 x u. 10 cm x 3,5 mts</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>6088</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>7798035950232</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>JMY ALICATE CORTA CUTICULAS (J1012)</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>6102</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>7794922400521</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE NAIL ART 213/002</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>6103</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>7798121756229</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE NAIL ART 213/006</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>6104</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>7798121756267</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE NAIL ART 213/023</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>6105</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>7798156552018</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE NAIL ART 213/027</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>6106</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>779821489281</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>JAC MAQUILLAJE PARA CEJAS 517/001</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>7798327346385</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>JAC MAQUILLAJE PARA CEJAS 517/002</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>6108</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>7798327346392</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>JAC DELINEADOR PARA OJOS RETRACTIL 254/001</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>6109</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>7798121752214</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>JAC DELINEADOR PARA OJOS RETRACTIL 254/003</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>7798121752207</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>JAC LABIAL EXTRA DURACION EFECTO MATE 526/001</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>6112</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>7798156558577</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>JAC LABIAL EXTRA DURACION EFECTO MATE 526-003</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>6113</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>7798156558591</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>JAC LABIAL EXTRA DURACION EFECTO MATE 526-010</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>6114</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>7798327340017</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>JAC BASE FLUIDA COVER MATTE 553/001</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>6116</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>7798214891509</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>JAC BASE FLUIDA COVER MATTE 553/002</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>6117</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>7798214891547</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>JAC RUBOR PERFECT 546/001</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>6119</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>7798214890809</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>JAC RUBOR PERFECT 546/002</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>7798214890816</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>JAC RUBOR PERFECT 546/003</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>6121</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>7798214890823</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>JAC CORRECTOR HD 533/001</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>6122</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>779832734761</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>JAC CORRECTOR HD 533/002</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>6123</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>7798327347627</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>JAC CORRECTOR HD 533/003</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>6124</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>7798327347634</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1004</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>6125</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>779809560032</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1323</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>6126</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>77982148907</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1298</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>6127</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>7798156556788</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1321</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>6128</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>7798214890687</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1319</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>6129</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>7798156559734</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1346</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>7798327347313</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1304</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>6131</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>7798156556849</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1345</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>6132</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>7798327347306</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1024</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>6133</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>7798095600641</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>JAC ESMALTE TRADICIONAL 210/1098</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>6134</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>7798095600818</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>JMY TIJERA PARA BEBE CURVA (J1211)</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>7794922529376</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>JMY LIMA FANTASIA 180/240 (KOREA) (L227)</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>7794922308001</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>JMY LIMA FLUO 240/240 (CHINA) (L127)</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>6151</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>7793674015984</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>JMY LIMA RECTA FANTASIA 180/240 (CHINA) (L27)</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>6152</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>7794922524579</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>JMY PEINE FLOREADO RASTRILLO (P1268)</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>6153</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>7794922555542</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>O2+ ESPONJA MAQUILLAJE BEAUTY BLENDER ELIPTICA ROSA (4063)</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>6154</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>7790000004063</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>NEBU SILFAB ULTRASONICO COD.N60 NUEVO</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>6155</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>7798028883769</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>23960</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>SANACUTIS BIO BALSAMO LABIAL FRUTILLA x Un</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>6159</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>7790243010678</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>SANACUTIS BIO BALSAMO LABIAL CHICLE x Un</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>7790243010661</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>SANACUTIS BIO BALSAMO LABIAL MENTA x Un</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>6161</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>7790243010593</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>SANACUTIS BIO BALSAMO LABIAL COCO x Un</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>6162</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>779024301063</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>SANACUTIS CREMA ORDEÑE POTE x 250 grs</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>6163</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>7790243010289</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>SANACUTIS CREMA ORDEÑE CON VALVULA x 250 cc.</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>6164</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>7790243010296</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>SANACUTIS BODY MILK x 370cc</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>6166</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>7790243008989</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>SANACUTIS BODY MILK CON VALVULA x 250cc</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>6167</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>7790243010616</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>VASELINA SOLIDA TABLADA POTE x  30 grs</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>7798021991935</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>ALG REPEL VAIS KIDS SPRAY x 200ml</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>6177</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>7791274198755</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>ALG DETERG VAIS LAVAVAJILLA EP 800</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>7791274200335</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
